--- a/html/Laboratoriesystemer_excel.XLSX
+++ b/html/Laboratoriesystemer_excel.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9944FEB-A257-4767-9E2A-814C4DF0B45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589B8EB8-97E0-43BF-87F4-C129CA34965F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Laboratoriesystemer">'Opdateret d. 12-05-2025'!$A$1:$Y$28</definedName>
+    <definedName name="Laboratoriesystemer">'Opdateret d. 16-05-2025'!$A$1:$Y$28</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/html/Laboratoriesystemer_excel.XLSX
+++ b/html/Laboratoriesystemer_excel.XLSX
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589B8EB8-97E0-43BF-87F4-C129CA34965F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F436BF8-802A-43E7-A88E-692227D1B7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Laboratoriesystemer">'Opdateret d. 16-05-2025'!$A$1:$Y$28</definedName>
+    <definedName name="Laboratoriesystemer">'Opdateret d. 02-12-2025'!$A$1:$Y$31</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="69">
   <si>
     <t>Standard</t>
   </si>
@@ -166,12 +166,24 @@
     <t>XDAO01 (XA0140Z)</t>
   </si>
   <si>
+    <t>HistopathologyReport</t>
+  </si>
+  <si>
+    <t>XRPT04 (XR0432P)</t>
+  </si>
+  <si>
     <t>MicrobiologyWebReport</t>
   </si>
   <si>
     <t>XRPT05 (XR0532M)</t>
   </si>
   <si>
+    <t>GeneticsReport</t>
+  </si>
+  <si>
+    <t>XRPT07 (XR0731G)</t>
+  </si>
+  <si>
     <t>Binær dokumenttransport</t>
   </si>
   <si>
@@ -218,12 +230,6 @@
   </si>
   <si>
     <t>XRPT05 (XR0531M)</t>
-  </si>
-  <si>
-    <t>GeneticsReport</t>
-  </si>
-  <si>
-    <t>XRPT07 (XR0731G)</t>
   </si>
 </sst>
 </file>
@@ -565,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -950,8 +956,8 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="P12" t="s">
-        <v>39</v>
+      <c r="T12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -962,215 +968,206 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-      <c r="U13" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="P13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" t="s">
-        <v>28</v>
-      </c>
-      <c r="R14" t="s">
-        <v>28</v>
-      </c>
-      <c r="S14" t="s">
-        <v>28</v>
-      </c>
-      <c r="U14" t="s">
-        <v>28</v>
-      </c>
-      <c r="V14" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="T14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
         <v>28</v>
       </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" t="s">
-        <v>28</v>
+      <c r="U15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
       <c r="R16" t="s">
         <v>28</v>
       </c>
-      <c r="T16" t="s">
-        <v>28</v>
+      <c r="S16" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" t="s">
-        <v>28</v>
-      </c>
-      <c r="W17" t="s">
-        <v>29</v>
+        <v>55</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="W18" t="s">
-        <v>29</v>
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="R18" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
       </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" t="s">
-        <v>28</v>
-      </c>
       <c r="K19" t="s">
         <v>28</v>
       </c>
-      <c r="L19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>28</v>
-      </c>
-      <c r="U19" t="s">
-        <v>29</v>
-      </c>
-      <c r="V19" t="s">
-        <v>28</v>
+      <c r="W19" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>28</v>
+        <v>55</v>
+      </c>
+      <c r="W20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="R21" t="s">
-        <v>28</v>
-      </c>
-      <c r="S21" t="s">
-        <v>29</v>
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>28</v>
+      </c>
+      <c r="U21" t="s">
+        <v>29</v>
+      </c>
+      <c r="V21" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -1181,13 +1178,16 @@
         <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="R22" t="s">
-        <v>28</v>
-      </c>
-      <c r="S22" t="s">
-        <v>29</v>
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -1198,13 +1198,13 @@
         <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
+        <v>55</v>
+      </c>
+      <c r="R23" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -1215,10 +1215,13 @@
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" t="s">
-        <v>28</v>
+        <v>55</v>
+      </c>
+      <c r="R24" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -1229,70 +1232,118 @@
         <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" t="s">
-        <v>28</v>
-      </c>
-      <c r="U25" t="s">
-        <v>29</v>
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="O26" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
-      </c>
-      <c r="O27" t="s">
-        <v>39</v>
-      </c>
-      <c r="P27" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>28</v>
+      </c>
+      <c r="U27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="T28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>51</v>
       </c>
-      <c r="M28" t="s">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" t="s">
         <v>39</v>
+      </c>
+      <c r="T31" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/html/Laboratoriesystemer_excel.XLSX
+++ b/html/Laboratoriesystemer_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F436BF8-802A-43E7-A88E-692227D1B7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5353C496-A6C0-474E-8019-E04288E84F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/html/Laboratoriesystemer_excel.XLSX
+++ b/html/Laboratoriesystemer_excel.XLSX
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5353C496-A6C0-474E-8019-E04288E84F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB2328B-FBDF-488C-81C8-55760DE7E560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Laboratoriesystemer">'Opdateret d. 02-12-2025'!$A$1:$Y$31</definedName>
+    <definedName name="Laboratoriesystemer">'Opdateret d. 05-12-2025'!$A$1:$Y$31</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -577,9 +577,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -715,7 +715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -774,7 +774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -800,7 +800,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -814,7 +814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -864,7 +864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -887,7 +887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -904,7 +904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -918,7 +918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -932,7 +932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -946,7 +946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -960,7 +960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -974,7 +974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -988,7 +988,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>51</v>
       </c>

--- a/html/Laboratoriesystemer_excel.XLSX
+++ b/html/Laboratoriesystemer_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB2328B-FBDF-488C-81C8-55760DE7E560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5175A1-42F6-4701-B06C-4AF044A70976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 19-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Laboratoriesystemer">'Opdateret d. 05-12-2025'!$A$1:$Y$31</definedName>
+    <definedName name="Laboratoriesystemer">'Opdateret d. 19-12-2025'!$A$1:$Y$31</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -577,9 +577,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -715,7 +715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -774,7 +774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -800,7 +800,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -814,7 +814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -864,7 +864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -887,7 +887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -904,7 +904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -918,7 +918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -932,7 +932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -946,7 +946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -960,7 +960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -974,7 +974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -988,7 +988,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>51</v>
       </c>
